--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -197,6 +197,15 @@
     <t>LOINC#73761-9</t>
   </si>
   <si>
+    <t>Observation-fetal-remains-disposition-method</t>
+  </si>
+  <si>
+    <t>Observation - Fetal Remains Disposition Method</t>
+  </si>
+  <si>
+    <t>LOINC#88241-5</t>
+  </si>
+  <si>
     <t>Observation-gestational-age-at-delivery</t>
   </si>
   <si>
@@ -267,15 +276,6 @@
   </si>
   <si>
     <t>LOINC#8665-2</t>
-  </si>
-  <si>
-    <t>Observation-method-of-disposition</t>
-  </si>
-  <si>
-    <t>Observation - Method of Disposition</t>
-  </si>
-  <si>
-    <t>LOINC#88241-5</t>
   </si>
   <si>
     <t>Observation-mother-delivery-weight</t>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -1167,28 +1167,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s" s="2">
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -1223,7 +1223,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -1258,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1272,28 +1272,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s" s="2">
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1307,28 +1307,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s" s="2">
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1360,10 +1360,10 @@
         <v>13</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1395,10 +1395,10 @@
         <v>13</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1774,7 +1774,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>13</v>
@@ -2168,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>17</v>
@@ -2273,7 +2273,7 @@
         <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>17</v>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -101,7 +101,7 @@
     <t>Observation-birth-plurality-of-pregnancy</t>
   </si>
   <si>
-    <t>Observation -Birth Plurality of Pregnancy</t>
+    <t>Observation - Birth Plurality of Pregnancy</t>
   </si>
   <si>
     <t>LOINC#73773-4</t>
